--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockanalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neerajkumar/stockanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47D69455-1B93-47ED-B067-480F93175721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C5E434-C2D3-4E48-89F7-23C4D0F6D297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -49,21 +52,9 @@
     <t>WIPRO</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>HCLTECH</t>
   </si>
   <si>
-    <t>EX PASS</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>Dmart</t>
-  </si>
-  <si>
     <t>HDFC BANK</t>
   </si>
   <si>
@@ -85,15 +76,6 @@
     <t>CRAFTSMAN</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EX PASS</t>
-  </si>
-  <si>
     <t>HINDUNILVR</t>
   </si>
   <si>
@@ -172,12 +154,6 @@
     <t>TVSMOTOR</t>
   </si>
   <si>
-    <t>ex fail</t>
-  </si>
-  <si>
-    <t>mix</t>
-  </si>
-  <si>
     <t>TATACONSUM</t>
   </si>
   <si>
@@ -214,7 +190,22 @@
     <t>SUPREMEIND</t>
   </si>
   <si>
-    <t>ex pass</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>DMART</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -566,19 +557,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,404 +577,412 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" t="s">
-        <v>5</v>
+      <c r="B51" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B51" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
+      <sortCondition ref="B1:B39"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neerajkumar/stockanalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C5E434-C2D3-4E48-89F7-23C4D0F6D297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C16F4F-DADE-43D4-8642-0D718B71362E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -559,17 +559,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -585,7 +585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -593,7 +593,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -601,7 +601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -609,7 +609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -617,7 +617,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -625,7 +625,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -633,7 +633,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -641,7 +641,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -649,7 +649,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -657,7 +657,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -665,7 +665,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -673,7 +673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -681,7 +681,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -689,7 +689,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -697,7 +697,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -705,7 +705,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -713,7 +713,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -721,7 +721,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -729,7 +729,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -737,7 +737,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -745,7 +745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -753,7 +753,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -761,7 +761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -769,7 +769,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -777,7 +777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -785,7 +785,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -793,7 +793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -801,7 +801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -809,7 +809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -817,7 +817,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -833,7 +833,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -841,7 +841,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -849,7 +849,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -857,7 +857,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -865,7 +865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -873,7 +873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -881,7 +881,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -889,7 +889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -897,7 +897,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -905,7 +905,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -913,7 +913,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -921,7 +921,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -929,7 +929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -937,7 +937,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -945,7 +945,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -953,7 +953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -961,15 +961,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>

--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockanalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neerajkumar/stockanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C16F4F-DADE-43D4-8642-0D718B71362E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749A7B19-2523-6349-B907-921F9AE8AA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -206,6 +206,45 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>TATVA</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>ABSLAMC</t>
+  </si>
+  <si>
+    <t>CEATLTD</t>
+  </si>
+  <si>
+    <t>COLPAL</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
+    <t>HOMEFIRST</t>
+  </si>
+  <si>
+    <t>ICRA</t>
+  </si>
+  <si>
+    <t>KANSAINER</t>
+  </si>
+  <si>
+    <t>SRF</t>
+  </si>
+  <si>
+    <t>SWARAJENG</t>
+  </si>
+  <si>
+    <t>TECHM</t>
+  </si>
+  <si>
+    <t>MANORG</t>
   </si>
 </sst>
 </file>
@@ -557,19 +596,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -585,7 +624,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -593,7 +632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -601,7 +640,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -609,7 +648,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -617,7 +656,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -625,7 +664,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -633,7 +672,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -641,7 +680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -649,7 +688,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -657,7 +696,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -665,7 +704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -673,7 +712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -681,7 +720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -689,7 +728,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -697,7 +736,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -705,7 +744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -713,7 +752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -721,7 +760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -729,7 +768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -737,7 +776,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -745,7 +784,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -753,7 +792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -761,7 +800,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -769,7 +808,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -777,7 +816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -785,7 +824,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -793,7 +832,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -801,7 +840,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -809,7 +848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -817,7 +856,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -825,7 +864,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -833,7 +872,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -841,7 +880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -849,7 +888,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -857,7 +896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -865,7 +904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -873,7 +912,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -881,7 +920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -889,7 +928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -897,7 +936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -905,7 +944,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -913,7 +952,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -921,7 +960,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -929,7 +968,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -937,7 +976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -945,7 +984,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -953,7 +992,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -961,17 +1000,112 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neerajkumar/stockanalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749A7B19-2523-6349-B907-921F9AE8AA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AA7BFF-B0AD-4158-9AF6-DF5B092A54EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -245,6 +245,36 @@
   </si>
   <si>
     <t>MANORG</t>
+  </si>
+  <si>
+    <t>AMBUJACEM</t>
+  </si>
+  <si>
+    <t>AXISBANK</t>
+  </si>
+  <si>
+    <t>BAJFINANCE</t>
+  </si>
+  <si>
+    <t>CANBK</t>
+  </si>
+  <si>
+    <t>CERA</t>
+  </si>
+  <si>
+    <t>KOTAKBANK</t>
+  </si>
+  <si>
+    <t>LALPATHLAB</t>
+  </si>
+  <si>
+    <t>NAM-INDIA</t>
+  </si>
+  <si>
+    <t>PERSISTENT</t>
+  </si>
+  <si>
+    <t>MGL</t>
   </si>
 </sst>
 </file>
@@ -596,19 +626,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -624,7 +654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -632,7 +662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -640,7 +670,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -648,7 +678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -656,7 +686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -664,7 +694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -672,7 +702,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -680,7 +710,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -688,7 +718,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -696,7 +726,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -704,7 +734,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -712,7 +742,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -720,7 +750,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -728,7 +758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -736,7 +766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -744,7 +774,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -752,7 +782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -760,7 +790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -768,7 +798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -776,7 +806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -784,7 +814,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -792,7 +822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -800,7 +830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -808,7 +838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -816,7 +846,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -824,7 +854,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -832,7 +862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -840,7 +870,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -848,7 +878,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -856,7 +886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -864,7 +894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -872,7 +902,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -880,7 +910,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -888,7 +918,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -896,7 +926,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -904,7 +934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -912,7 +942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -920,7 +950,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -928,7 +958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -936,7 +966,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -944,7 +974,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -952,7 +982,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -960,7 +990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -968,7 +998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -976,7 +1006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -984,7 +1014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -992,7 +1022,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1000,7 +1030,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1008,7 +1038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1016,7 +1046,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1024,12 +1054,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1037,12 +1067,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -1050,7 +1083,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -1058,17 +1091,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1076,7 +1115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -1084,7 +1123,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1092,7 +1131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -1100,12 +1139,92 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>69</v>
       </c>
       <c r="B64" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockanalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neerajkumar/stockanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AA7BFF-B0AD-4158-9AF6-DF5B092A54EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A242DB3C-D4B1-B84E-86E1-167939E1766C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="80">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -628,17 +628,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -654,7 +654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -662,7 +662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -670,7 +670,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -678,7 +678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -686,7 +686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -694,7 +694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -702,7 +702,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -710,7 +710,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -718,7 +718,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -726,7 +726,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -734,7 +734,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -742,7 +742,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -750,7 +750,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -758,7 +758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -766,7 +766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -774,7 +774,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -782,7 +782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -806,7 +806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -814,7 +814,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -822,7 +822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -830,7 +830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -838,7 +838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -846,7 +846,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -854,7 +854,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -862,7 +862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -870,7 +870,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -878,7 +878,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -886,7 +886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -894,7 +894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -902,7 +902,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -910,7 +910,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -918,7 +918,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -926,7 +926,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -934,7 +934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -942,7 +942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -950,7 +950,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -958,7 +958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -966,7 +966,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -974,7 +974,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -982,7 +982,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -990,7 +990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -998,7 +998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1054,12 +1054,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1067,7 +1070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -1091,7 +1094,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>79</v>
       </c>

--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neerajkumar/stockanalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A242DB3C-D4B1-B84E-86E1-167939E1766C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6CE507-B26C-45AA-91DA-155AEDA93920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="98">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -275,6 +275,60 @@
   </si>
   <si>
     <t>MGL</t>
+  </si>
+  <si>
+    <t>AARTIDRUGS</t>
+  </si>
+  <si>
+    <t>ADANIENT</t>
+  </si>
+  <si>
+    <t>ADANIPORTS</t>
+  </si>
+  <si>
+    <t>BAJAJ-AUTO</t>
+  </si>
+  <si>
+    <t>BALAMINES</t>
+  </si>
+  <si>
+    <t>CUMMINSIND</t>
+  </si>
+  <si>
+    <t>DEEPAKNI</t>
+  </si>
+  <si>
+    <t>HAPPSTMNDS-BE</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>MARUTI</t>
+  </si>
+  <si>
+    <t>OFFS</t>
+  </si>
+  <si>
+    <t>SBILIFE</t>
+  </si>
+  <si>
+    <t>TATACHEM</t>
+  </si>
+  <si>
+    <t>SKFINDIA</t>
+  </si>
+  <si>
+    <t>TITAN</t>
+  </si>
+  <si>
+    <t>UBL</t>
+  </si>
+  <si>
+    <t>VAIBHAVGBL</t>
   </si>
 </sst>
 </file>
@@ -626,19 +680,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -654,7 +708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -662,7 +716,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -670,7 +724,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -678,7 +732,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -686,7 +740,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -694,7 +748,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -702,7 +756,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -710,7 +764,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -718,7 +772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -726,7 +780,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -734,7 +788,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -742,7 +796,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -750,7 +804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -758,7 +812,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -766,7 +820,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -774,7 +828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -782,7 +836,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -790,7 +844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -798,7 +852,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -806,7 +860,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -814,7 +868,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -822,7 +876,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -830,7 +884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -838,7 +892,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -846,7 +900,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -854,7 +908,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -862,7 +916,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -870,7 +924,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -878,7 +932,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -886,7 +940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -894,7 +948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -902,7 +956,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -910,7 +964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -918,7 +972,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -926,7 +980,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -934,7 +988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -942,7 +996,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -950,7 +1004,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -958,7 +1012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -966,7 +1020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -974,7 +1028,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -982,7 +1036,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -990,7 +1044,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -998,7 +1052,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1006,7 +1060,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1014,7 +1068,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1022,7 +1076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1030,7 +1084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1038,7 +1092,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1046,7 +1100,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1054,7 +1108,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1062,7 +1116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1070,7 +1124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1078,7 +1132,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -1086,7 +1140,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -1094,7 +1148,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -1102,7 +1156,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -1110,7 +1164,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1118,7 +1172,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -1126,7 +1180,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1134,7 +1188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -1142,7 +1196,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -1150,7 +1204,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -1158,7 +1212,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -1166,7 +1220,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -1174,7 +1228,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -1182,7 +1236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -1190,7 +1244,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -1198,7 +1252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -1206,7 +1260,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -1214,7 +1268,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -1222,12 +1276,153 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
       <c r="B74" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6CE507-B26C-45AA-91DA-155AEDA93920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCB5032-1DE6-4F16-8858-1EFD4DE59CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="115">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -329,6 +329,57 @@
   </si>
   <si>
     <t>VAIBHAVGBL</t>
+  </si>
+  <si>
+    <t>AAVAS</t>
+  </si>
+  <si>
+    <t>ADANIGREEN</t>
+  </si>
+  <si>
+    <t>AUBANK</t>
+  </si>
+  <si>
+    <t>BAJAJFINSV</t>
+  </si>
+  <si>
+    <t>BLUESTARCO</t>
+  </si>
+  <si>
+    <t>CHEMCON</t>
+  </si>
+  <si>
+    <t>COROMANDEL</t>
+  </si>
+  <si>
+    <t>GMM</t>
+  </si>
+  <si>
+    <t>GUJGASLTD</t>
+  </si>
+  <si>
+    <t>LAURUSLABS</t>
+  </si>
+  <si>
+    <t>MARICO</t>
+  </si>
+  <si>
+    <t>PAUSHAKLTD</t>
+  </si>
+  <si>
+    <t>SBICARD</t>
+  </si>
+  <si>
+    <t>TATAPOWER</t>
+  </si>
+  <si>
+    <t>UTIAMC</t>
+  </si>
+  <si>
+    <t>WESTLIFE</t>
+  </si>
+  <si>
+    <t>ZYDUSWELL</t>
   </si>
 </sst>
 </file>
@@ -680,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1425,6 +1476,136 @@
         <v>53</v>
       </c>
     </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B51" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">

--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockanalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neerajkumar/stockanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCB5032-1DE6-4F16-8858-1EFD4DE59CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB55C0-CEC8-6745-945A-D50FDC02244B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="128">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -380,6 +380,45 @@
   </si>
   <si>
     <t>ZYDUSWELL</t>
+  </si>
+  <si>
+    <t>AARTISURF</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>APPOLOTYRE</t>
+  </si>
+  <si>
+    <t>ATUL</t>
+  </si>
+  <si>
+    <t>CHOLAFIN</t>
+  </si>
+  <si>
+    <t>DIXON</t>
+  </si>
+  <si>
+    <t>ESCORTS</t>
+  </si>
+  <si>
+    <t>EXIDEIND</t>
+  </si>
+  <si>
+    <t>SHREECEM</t>
+  </si>
+  <si>
+    <t>SUMICHEM</t>
+  </si>
+  <si>
+    <t>UPL</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>VOLTAS</t>
   </si>
 </sst>
 </file>
@@ -731,19 +770,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -759,7 +798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -767,7 +806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -775,7 +814,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -783,7 +822,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -791,7 +830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -799,7 +838,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -807,7 +846,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -815,7 +854,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -823,7 +862,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -831,7 +870,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -839,7 +878,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -847,7 +886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -855,7 +894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -863,7 +902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -871,7 +910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -879,7 +918,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -887,7 +926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -895,7 +934,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -903,7 +942,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -911,7 +950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -919,7 +958,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -927,7 +966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -935,7 +974,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -943,7 +982,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -951,7 +990,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -959,7 +998,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -967,7 +1006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -975,7 +1014,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -983,7 +1022,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -991,7 +1030,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -999,7 +1038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1007,7 +1046,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1015,7 +1054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1023,7 +1062,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1031,7 +1070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1039,7 +1078,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1047,7 +1086,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1055,7 +1094,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1063,7 +1102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1071,7 +1110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1079,7 +1118,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1087,7 +1126,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1095,7 +1134,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1103,7 +1142,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1111,7 +1150,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1119,7 +1158,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1127,7 +1166,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1135,7 +1174,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1143,7 +1182,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1151,7 +1190,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1159,7 +1198,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1167,7 +1206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1175,7 +1214,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1183,7 +1222,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -1191,7 +1230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -1199,7 +1238,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -1207,7 +1246,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -1215,7 +1254,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1223,7 +1262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -1231,7 +1270,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1239,7 +1278,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -1247,7 +1286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -1255,7 +1294,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -1263,7 +1302,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -1271,7 +1310,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -1279,7 +1318,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -1287,7 +1326,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -1295,7 +1334,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -1303,7 +1342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -1311,7 +1350,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -1319,7 +1358,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -1327,7 +1366,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -1335,7 +1374,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -1343,7 +1382,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -1351,7 +1390,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -1359,7 +1398,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -1367,7 +1406,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -1375,7 +1414,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -1383,12 +1422,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -1396,7 +1438,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -1404,7 +1446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -1412,7 +1454,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -1420,7 +1462,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -1428,7 +1470,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -1436,7 +1478,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -1444,7 +1486,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -1452,7 +1494,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -1460,7 +1502,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -1468,7 +1510,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -1476,7 +1518,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -1484,7 +1526,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -1492,7 +1534,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -1500,7 +1542,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -1508,7 +1550,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -1516,7 +1558,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -1524,7 +1566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -1532,7 +1574,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -1540,7 +1582,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -1548,7 +1590,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -1556,7 +1598,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -1564,7 +1606,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -1572,7 +1614,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -1580,7 +1622,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -1588,12 +1630,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -1601,9 +1646,105 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>114</v>
+      </c>
+      <c r="B109" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neerajkumar/stockanalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB55C0-CEC8-6745-945A-D50FDC02244B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A798E0-3E15-4BF0-A306-7C722D19770B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="134">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -419,6 +419,24 @@
   </si>
   <si>
     <t>VOLTAS</t>
+  </si>
+  <si>
+    <t>ROSSARI</t>
+  </si>
+  <si>
+    <t>NEOGEN</t>
+  </si>
+  <si>
+    <t>IPL</t>
+  </si>
+  <si>
+    <t>FINOLEXIND</t>
+  </si>
+  <si>
+    <t>AMBER</t>
+  </si>
+  <si>
+    <t>AARTIIND</t>
   </si>
 </sst>
 </file>
@@ -770,19 +788,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -798,7 +816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -806,7 +824,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -814,7 +832,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -822,7 +840,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -830,7 +848,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -838,7 +856,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -846,7 +864,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -854,7 +872,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -862,7 +880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -870,7 +888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -878,7 +896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -886,7 +904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -894,7 +912,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -902,7 +920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -910,7 +928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -918,7 +936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -926,7 +944,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -934,7 +952,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -942,7 +960,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -950,7 +968,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -958,7 +976,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -966,7 +984,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -974,7 +992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -982,7 +1000,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -990,7 +1008,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -998,7 +1016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1006,7 +1024,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1014,7 +1032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1022,7 +1040,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1030,7 +1048,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1056,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1046,7 +1064,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1054,7 +1072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1062,7 +1080,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1070,7 +1088,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1078,7 +1096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1086,7 +1104,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1094,7 +1112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1102,7 +1120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1110,7 +1128,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1118,7 +1136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1126,7 +1144,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1134,7 +1152,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1142,7 +1160,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1150,7 +1168,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1158,7 +1176,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1166,7 +1184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1174,7 +1192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1182,7 +1200,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1190,7 +1208,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1198,7 +1216,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1206,7 +1224,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1214,7 +1232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1222,7 +1240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -1230,7 +1248,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -1238,7 +1256,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -1246,7 +1264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -1254,7 +1272,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1262,7 +1280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -1270,7 +1288,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1278,7 +1296,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -1286,7 +1304,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -1294,7 +1312,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -1302,7 +1320,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -1310,7 +1328,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -1318,7 +1336,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -1326,7 +1344,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -1334,7 +1352,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -1342,7 +1360,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -1350,7 +1368,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -1358,7 +1376,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -1366,7 +1384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -1374,7 +1392,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -1382,7 +1400,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -1390,7 +1408,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -1398,7 +1416,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -1406,7 +1424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -1414,7 +1432,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -1422,7 +1440,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -1430,7 +1448,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -1438,7 +1456,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -1446,7 +1464,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -1454,7 +1472,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -1462,7 +1480,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -1470,7 +1488,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -1478,7 +1496,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -1486,7 +1504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -1494,7 +1512,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -1502,7 +1520,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -1510,7 +1528,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -1518,7 +1536,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -1526,7 +1544,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -1534,7 +1552,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -1542,7 +1560,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -1550,7 +1568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -1558,7 +1576,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -1566,7 +1584,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -1574,7 +1592,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -1582,7 +1600,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -1590,7 +1608,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -1598,7 +1616,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -1606,7 +1624,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -1614,7 +1632,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -1622,7 +1640,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -1630,7 +1648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -1638,7 +1656,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -1646,7 +1664,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -1654,7 +1672,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -1662,7 +1680,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -1670,7 +1688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -1678,12 +1696,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -1691,7 +1709,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -1699,7 +1717,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -1707,7 +1725,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -1715,7 +1733,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -1723,7 +1741,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -1731,7 +1749,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -1739,12 +1757,57 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>127</v>
       </c>
       <c r="B121" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockanalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neerajkumar/stockanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A798E0-3E15-4BF0-A306-7C722D19770B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF9C18E-9844-5646-A046-81F7D4061119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="142">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -437,6 +437,30 @@
   </si>
   <si>
     <t>AARTIIND</t>
+  </si>
+  <si>
+    <t>AKYLAMINE</t>
+  </si>
+  <si>
+    <t>BHARTIARTL</t>
+  </si>
+  <si>
+    <t>DABUR</t>
+  </si>
+  <si>
+    <t>EASEMYTRIP-BE</t>
+  </si>
+  <si>
+    <t>LXCHEM</t>
+  </si>
+  <si>
+    <t>PGHH</t>
+  </si>
+  <si>
+    <t>RADICO</t>
+  </si>
+  <si>
+    <t>TRENT</t>
   </si>
 </sst>
 </file>
@@ -788,19 +812,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -808,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -816,7 +840,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -824,7 +848,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -832,7 +856,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -840,7 +864,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -848,7 +872,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -856,7 +880,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -864,7 +888,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -872,7 +896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -880,7 +904,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -888,7 +912,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -896,7 +920,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -904,7 +928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -912,7 +936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -920,7 +944,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -928,7 +952,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -936,7 +960,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -944,7 +968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -952,7 +976,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -960,7 +984,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -968,7 +992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -976,7 +1000,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -984,7 +1008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -992,7 +1016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1024,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1008,7 +1032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1016,7 +1040,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1024,7 +1048,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1032,7 +1056,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1040,7 +1064,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1048,7 +1072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1056,7 +1080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1064,7 +1088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1072,7 +1096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1080,7 +1104,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1088,7 +1112,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1096,7 +1120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1104,7 +1128,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1112,7 +1136,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1120,7 +1144,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1128,7 +1152,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1136,7 +1160,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1144,7 +1168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1152,7 +1176,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1160,7 +1184,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1168,7 +1192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1176,7 +1200,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1184,7 +1208,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1192,7 +1216,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1200,7 +1224,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1208,7 +1232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1216,7 +1240,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1224,7 +1248,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1232,7 +1256,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1240,7 +1264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -1248,7 +1272,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -1256,7 +1280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -1264,7 +1288,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -1272,7 +1296,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1280,7 +1304,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -1288,7 +1312,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1296,7 +1320,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -1304,7 +1328,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -1312,7 +1336,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -1320,7 +1344,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -1328,7 +1352,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -1336,7 +1360,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -1344,7 +1368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -1352,7 +1376,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -1360,7 +1384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -1368,7 +1392,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -1376,7 +1400,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -1384,7 +1408,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -1392,7 +1416,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -1400,7 +1424,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -1408,7 +1432,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -1416,7 +1440,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -1424,7 +1448,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -1432,7 +1456,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -1440,7 +1464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -1448,7 +1472,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -1456,7 +1480,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -1464,7 +1488,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -1472,7 +1496,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -1480,7 +1504,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -1488,7 +1512,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -1496,7 +1520,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -1504,7 +1528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -1512,7 +1536,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -1520,7 +1544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -1528,7 +1552,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -1536,7 +1560,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -1544,7 +1568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -1552,7 +1576,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -1560,7 +1584,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -1568,7 +1592,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -1576,7 +1600,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -1584,7 +1608,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -1592,7 +1616,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -1600,7 +1624,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -1608,7 +1632,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -1616,7 +1640,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -1624,7 +1648,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -1632,7 +1656,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -1640,7 +1664,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -1648,7 +1672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -1656,7 +1680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -1664,7 +1688,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -1672,7 +1696,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -1680,7 +1704,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -1688,7 +1712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -1696,12 +1720,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -1709,7 +1736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -1717,7 +1744,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -1725,7 +1752,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -1733,7 +1760,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -1741,7 +1768,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -1749,7 +1776,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -1757,7 +1784,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -1765,7 +1792,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -1773,7 +1800,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -1781,20 +1808,23 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -1802,12 +1832,73 @@
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>133</v>
       </c>
       <c r="B127" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neerajkumar/stockanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF9C18E-9844-5646-A046-81F7D4061119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D168144-011E-7F4C-A155-BF436F70964A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="14860" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="149">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -461,6 +461,27 @@
   </si>
   <si>
     <t>TRENT</t>
+  </si>
+  <si>
+    <t>ABFRL</t>
+  </si>
+  <si>
+    <t>BATAINDIA</t>
+  </si>
+  <si>
+    <t>EICHERMOT</t>
+  </si>
+  <si>
+    <t>GRINDWELL</t>
+  </si>
+  <si>
+    <t>GSPL</t>
+  </si>
+  <si>
+    <t>PFIZER</t>
+  </si>
+  <si>
+    <t>SBIN</t>
   </si>
 </sst>
 </file>
@@ -812,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1876,6 +1897,9 @@
       <c r="A132" t="s">
         <v>138</v>
       </c>
+      <c r="B132" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
@@ -1898,6 +1922,62 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142" t="s">
         <v>52</v>
       </c>
     </row>

--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neerajkumar/stockanalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D168144-011E-7F4C-A155-BF436F70964A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70ECA68-6493-4208-BD93-8BE78F728C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="14860" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="151">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -482,6 +482,12 @@
   </si>
   <si>
     <t>SBIN</t>
+  </si>
+  <si>
+    <t>DIVISLAB</t>
+  </si>
+  <si>
+    <t>MUTHOONFIN</t>
   </si>
 </sst>
 </file>
@@ -833,19 +839,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -861,7 +867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -869,7 +875,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -877,7 +883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -885,7 +891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -893,7 +899,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -901,7 +907,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -909,7 +915,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -917,7 +923,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -925,7 +931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -933,7 +939,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -941,7 +947,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -949,7 +955,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -957,7 +963,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -965,7 +971,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -973,7 +979,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -981,7 +987,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -989,7 +995,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -997,7 +1003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1029,7 +1035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1061,7 +1067,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1101,7 +1107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1133,7 +1139,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1157,7 +1163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1181,7 +1187,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1205,7 +1211,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1237,7 +1243,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1253,7 +1259,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -1301,7 +1307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -1309,7 +1315,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -1349,7 +1355,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -1405,7 +1411,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -1437,7 +1443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -1493,7 +1499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -1501,7 +1507,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -1509,7 +1515,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -1541,7 +1547,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -1549,7 +1555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -1557,7 +1563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -1573,7 +1579,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -1581,7 +1587,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -1589,7 +1595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -1597,7 +1603,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -1629,7 +1635,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -1645,7 +1651,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -1653,7 +1659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -1669,7 +1675,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -1677,7 +1683,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -1685,7 +1691,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -1733,7 +1739,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -1765,7 +1771,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -1805,7 +1811,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -1821,7 +1827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -1861,7 +1867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -1893,7 +1899,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -1909,7 +1915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -1917,7 +1923,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -1949,7 +1955,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -1965,7 +1971,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -1973,12 +1979,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>148</v>
       </c>
       <c r="B142" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70ECA68-6493-4208-BD93-8BE78F728C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2BBAB2-3340-425B-8F4B-71ABDADFCE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="154">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -488,6 +488,15 @@
   </si>
   <si>
     <t>MUTHOONFIN</t>
+  </si>
+  <si>
+    <t>AUROPHARMA</t>
+  </si>
+  <si>
+    <t>BRITANNIA</t>
+  </si>
+  <si>
+    <t>KRBL</t>
   </si>
 </sst>
 </file>
@@ -839,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-  <dimension ref="A1:B144"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2003,6 +2012,30 @@
         <v>51</v>
       </c>
     </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B51" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">

--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2BBAB2-3340-425B-8F4B-71ABDADFCE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C83E89-B2D8-4914-8B06-CA734C68DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="159">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -497,6 +497,21 @@
   </si>
   <si>
     <t>KRBL</t>
+  </si>
+  <si>
+    <t>ASTRAZEN</t>
+  </si>
+  <si>
+    <t>IGL</t>
+  </si>
+  <si>
+    <t>PGHL</t>
+  </si>
+  <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>POWERGRID</t>
   </si>
 </sst>
 </file>
@@ -848,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2036,6 +2051,43 @@
         <v>53</v>
       </c>
     </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B51" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">

--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C83E89-B2D8-4914-8B06-CA734C68DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315B3723-98CA-47E3-8A1C-2F54914987C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="177">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -512,6 +512,60 @@
   </si>
   <si>
     <t>POWERGRID</t>
+  </si>
+  <si>
+    <t>AFFLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BURGEPAINT</t>
+  </si>
+  <si>
+    <t>CRISIL</t>
+  </si>
+  <si>
+    <t>EQUITAS</t>
+  </si>
+  <si>
+    <t>GLS</t>
+  </si>
+  <si>
+    <t>MAZDOCK</t>
+  </si>
+  <si>
+    <t>NGLFINE</t>
+  </si>
+  <si>
+    <t>NUVOCO</t>
+  </si>
+  <si>
+    <t>PIDILITIND</t>
+  </si>
+  <si>
+    <t>RVNL</t>
+  </si>
+  <si>
+    <t>SUPRAJIT</t>
+  </si>
+  <si>
+    <t>WONDERLA</t>
+  </si>
+  <si>
+    <t>ZOMOTO</t>
+  </si>
+  <si>
+    <t>GODREJCP</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>NMDC</t>
+  </si>
+  <si>
+    <t>PAGEIND</t>
+  </si>
+  <si>
+    <t>TATASTEEL</t>
   </si>
 </sst>
 </file>
@@ -863,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2088,6 +2142,144 @@
         <v>53</v>
       </c>
     </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>171</v>
+      </c>
+      <c r="B165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B51" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">

--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockanalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neerajkumar/stockanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315B3723-98CA-47E3-8A1C-2F54914987C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD7327-D43C-0446-A0E0-16ED589F6818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="195">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -517,9 +517,6 @@
     <t>AFFLE</t>
   </si>
   <si>
-    <t xml:space="preserve"> BURGEPAINT</t>
-  </si>
-  <si>
     <t>CRISIL</t>
   </si>
   <si>
@@ -566,6 +563,63 @@
   </si>
   <si>
     <t>TATASTEEL</t>
+  </si>
+  <si>
+    <t>BURGEPAINT</t>
+  </si>
+  <si>
+    <t>ABBOTINDIA</t>
+  </si>
+  <si>
+    <t>ASTRAL</t>
+  </si>
+  <si>
+    <t>RITES</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>TASTYBITE</t>
+  </si>
+  <si>
+    <t>ALKEM</t>
+  </si>
+  <si>
+    <t>GRANULES</t>
+  </si>
+  <si>
+    <t>IOCLP</t>
+  </si>
+  <si>
+    <t>MOTHERSUMI</t>
+  </si>
+  <si>
+    <t>FINEORG</t>
+  </si>
+  <si>
+    <t>PIIND</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>IPCALAB</t>
+  </si>
+  <si>
+    <t>AMARAJABAT</t>
+  </si>
+  <si>
+    <t>CLEAN</t>
+  </si>
+  <si>
+    <t>HEROMOTOCO</t>
+  </si>
+  <si>
+    <t>DBL</t>
+  </si>
+  <si>
+    <t>NESCO</t>
   </si>
 </sst>
 </file>
@@ -917,19 +971,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -945,7 +999,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -953,7 +1007,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -961,7 +1015,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -969,7 +1023,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -977,7 +1031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -985,7 +1039,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -993,7 +1047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1001,7 +1055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1009,7 +1063,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1017,7 +1071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1025,7 +1079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1033,7 +1087,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1095,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1049,7 +1103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1057,7 +1111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1065,7 +1119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1073,7 +1127,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1081,7 +1135,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1089,7 +1143,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1097,7 +1151,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1105,7 +1159,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1113,7 +1167,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1121,7 +1175,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1129,7 +1183,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1137,7 +1191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1145,7 +1199,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1153,7 +1207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1161,7 +1215,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1169,7 +1223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1177,7 +1231,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1185,7 +1239,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1193,7 +1247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1201,7 +1255,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1209,7 +1263,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1217,7 +1271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1225,7 +1279,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1233,7 +1287,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1241,7 +1295,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1249,7 +1303,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1257,7 +1311,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1265,7 +1319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1273,7 +1327,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1281,7 +1335,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1289,7 +1343,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1297,7 +1351,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1305,7 +1359,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1313,7 +1367,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1321,7 +1375,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1329,7 +1383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1337,7 +1391,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1345,7 +1399,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1353,7 +1407,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1361,7 +1415,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1369,7 +1423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -1377,7 +1431,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -1385,7 +1439,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -1393,7 +1447,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -1401,7 +1455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1409,7 +1463,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -1417,7 +1471,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1425,7 +1479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -1433,7 +1487,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -1441,7 +1495,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -1449,7 +1503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -1457,7 +1511,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -1465,7 +1519,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -1473,7 +1527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -1481,7 +1535,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -1489,7 +1543,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -1497,7 +1551,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -1505,7 +1559,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -1513,7 +1567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -1521,7 +1575,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -1529,7 +1583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -1537,7 +1591,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -1545,7 +1599,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -1553,7 +1607,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -1561,7 +1615,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -1569,7 +1623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -1577,7 +1631,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -1585,7 +1639,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -1593,7 +1647,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -1601,7 +1655,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -1609,7 +1663,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -1617,7 +1671,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -1625,7 +1679,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -1633,7 +1687,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -1641,7 +1695,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -1649,7 +1703,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -1657,7 +1711,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -1665,7 +1719,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -1673,7 +1727,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -1681,7 +1735,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -1689,7 +1743,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -1697,7 +1751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -1705,7 +1759,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -1713,7 +1767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -1721,7 +1775,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -1729,7 +1783,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -1737,7 +1791,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -1745,7 +1799,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -1753,7 +1807,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -1761,7 +1815,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -1769,7 +1823,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -1777,7 +1831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -1785,7 +1839,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -1793,7 +1847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -1801,7 +1855,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -1809,7 +1863,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -1817,7 +1871,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -1825,7 +1879,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -1833,7 +1887,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -1841,7 +1895,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -1849,7 +1903,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -1857,7 +1911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -1865,7 +1919,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -1873,7 +1927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -1881,7 +1935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -1889,7 +1943,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -1897,7 +1951,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -1905,7 +1959,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -1913,7 +1967,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -1921,7 +1975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -1929,7 +1983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -1937,7 +1991,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -1945,7 +1999,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -1953,7 +2007,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -1961,7 +2015,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -1969,7 +2023,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -1977,7 +2031,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -1985,7 +2039,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -1993,7 +2047,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -2001,7 +2055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -2009,7 +2063,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -2017,7 +2071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -2025,7 +2079,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -2033,7 +2087,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -2041,7 +2095,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -2049,7 +2103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -2057,7 +2111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -2065,7 +2119,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -2073,7 +2127,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -2081,7 +2135,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -2089,7 +2143,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -2097,7 +2151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -2105,7 +2159,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -2113,12 +2167,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>155</v>
       </c>
@@ -2126,7 +2183,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -2134,7 +2191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -2142,7 +2199,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -2150,133 +2207,283 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>176</v>
+      </c>
+      <c r="B154" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>160</v>
       </c>
-      <c r="B154" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="B155" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>161</v>
       </c>
-      <c r="B155" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="B156" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>162</v>
       </c>
-      <c r="B156" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+      <c r="B157" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>163</v>
       </c>
-      <c r="B157" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="B158" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>164</v>
       </c>
-      <c r="B158" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="B159" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>165</v>
       </c>
-      <c r="B159" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="B160" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>166</v>
       </c>
-      <c r="B160" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="B161" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>167</v>
       </c>
-      <c r="B161" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+      <c r="B162" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>168</v>
       </c>
-      <c r="B162" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+      <c r="B163" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+      <c r="B164" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>170</v>
       </c>
-      <c r="B164" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="B165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>171</v>
       </c>
-      <c r="B165" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="B166" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="B167" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>173</v>
       </c>
-      <c r="B167" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+      <c r="B168" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>174</v>
       </c>
-      <c r="B168" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="B169" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>175</v>
       </c>
-      <c r="B169" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>176</v>
-      </c>
       <c r="B170" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>178</v>
+      </c>
+      <c r="B172" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>180</v>
+      </c>
+      <c r="B174" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>183</v>
+      </c>
+      <c r="B177" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>186</v>
+      </c>
+      <c r="B180" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>188</v>
+      </c>
+      <c r="B182" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>190</v>
+      </c>
+      <c r="B184" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>191</v>
+      </c>
+      <c r="B185" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>192</v>
+      </c>
+      <c r="B186" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>193</v>
+      </c>
+      <c r="B187" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>194</v>
+      </c>
+      <c r="B188" t="s">
         <v>51</v>
       </c>
     </row>
